--- a/PageObjectMultiParallelBrowserExtentTestCaseReport/Data/Demo.xlsx
+++ b/PageObjectMultiParallelBrowserExtentTestCaseReport/Data/Demo.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="RequestProposal" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -44,38 +43,7 @@
     <t xml:space="preserve">Month</t>
   </si>
   <si>
-    <t xml:space="preserve">Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum Testing Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business@optimumtestings.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MobileNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+91 77720 90003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkypeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looking for partnership in work!!!
-Great if we Collaborate...</t>
+    <t xml:space="preserve">May</t>
   </si>
 </sst>
 </file>
@@ -86,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,13 +75,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,14 +159,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -288,7 +241,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,92 +292,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="business@optimumtestings.com"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>